--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1203030.092534417</v>
+        <v>1200305.639859691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10275759.09096665</v>
+        <v>10265235.79178042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11168087.67310132</v>
+        <v>11168739.99306521</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>269.5134569480836</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.332975795529264</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.728248008472455</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>220.5438776867911</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>34.08172838941037</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>151.0482174230063</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.5083744693735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>213.8702335445215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>364.9001179169862</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3913114043231</v>
+        <v>410.3882617718129</v>
       </c>
       <c r="H11" t="n">
-        <v>289.1756594584144</v>
+        <v>289.144427409469</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.0105634759779</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.10094708611825</v>
+        <v>97.03145358529136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.5827319977386</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9527388189715</v>
+        <v>250.9524948483707</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7156725228833</v>
+        <v>134.7140408256397</v>
       </c>
       <c r="H12" t="n">
-        <v>86.85599731544021</v>
+        <v>86.84023855521947</v>
       </c>
       <c r="I12" t="n">
-        <v>9.046150058904814</v>
+        <v>8.989971009071581</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.8721094731961</v>
+        <v>122.8418014125536</v>
       </c>
       <c r="T12" t="n">
-        <v>189.5726706928004</v>
+        <v>189.5660938078582</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7684975651638</v>
+        <v>225.7683902166609</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.787882687031</v>
+        <v>165.7865147268743</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6396402832912</v>
+        <v>142.6274778738976</v>
       </c>
       <c r="I13" t="n">
-        <v>89.19734957195882</v>
+        <v>89.1562112792452</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.5323581958176</v>
+        <v>218.5265132751478</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1988604471403</v>
+        <v>158.8020422518305</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.58533270645132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261898</v>
+        <v>332.4423155261916</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.39624988407881</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>101.9637133032927</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>282.0260476272027</v>
+        <v>283.5630920045449</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.6609836748544</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>216.8824363404048</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045449</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.57292058964124</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>89.53408223745146</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>38.03682829123536</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>11.29378580560358</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2770,7 +2770,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>99.66489037142551</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>100.3634594877658</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>165.7429830731765</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>64.44601915223787</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>89.53408223745146</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>10.2808711819659</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>137.5824211930881</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>151.7477755975574</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>129.0510826495498</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>117.8722600728376</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223039</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>30.97191586387568</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>89.5340822374438</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>737.1647017090463</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>326.1787969194388</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2695.802650820718</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V5" t="n">
-        <v>2695.802650820718</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W5" t="n">
-        <v>2695.802650820718</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>2695.802650820718</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>828.6866298313923</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>459.7241128909807</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>459.7241128909807</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.723102746091</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.723102746091</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.723102746091</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2331.66021540252</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1978.891560132406</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1605.425801871326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1215.286469895514</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>296.5836898399692</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>800.9452297060877</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
         <v>498.8626623130036</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>895.7883961389279</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>895.7883961389279</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>895.7883961389279</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>895.7883961389279</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>895.7883961389279</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.082688531732</v>
+        <v>1586.914731074311</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.120171591321</v>
+        <v>1586.914731074311</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.85447298457</v>
+        <v>1586.914731074311</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.066220386326</v>
+        <v>1218.328753380385</v>
       </c>
       <c r="F11" t="n">
-        <v>786.0803155967184</v>
+        <v>807.342848590778</v>
       </c>
       <c r="G11" t="n">
-        <v>371.5436374105334</v>
+        <v>392.809250841472</v>
       </c>
       <c r="H11" t="n">
-        <v>79.44701169496331</v>
+        <v>100.7441726500892</v>
       </c>
       <c r="I11" t="n">
-        <v>79.44701169496331</v>
+        <v>79.52138126021254</v>
       </c>
       <c r="J11" t="n">
-        <v>312.8942065673435</v>
+        <v>313.2248215423861</v>
       </c>
       <c r="K11" t="n">
-        <v>713.5095549845751</v>
+        <v>714.2242154041264</v>
       </c>
       <c r="L11" t="n">
-        <v>1247.410081386423</v>
+        <v>1248.60118413951</v>
       </c>
       <c r="M11" t="n">
-        <v>1873.146726070729</v>
+        <v>1874.867962720483</v>
       </c>
       <c r="N11" t="n">
-        <v>2513.622252232381</v>
+        <v>2515.882200899488</v>
       </c>
       <c r="O11" t="n">
-        <v>3105.069868591695</v>
+        <v>3107.838507740714</v>
       </c>
       <c r="P11" t="n">
-        <v>3575.355724671201</v>
+        <v>3578.55851937756</v>
       </c>
       <c r="Q11" t="n">
-        <v>3880.348070455199</v>
+        <v>3883.876897904271</v>
       </c>
       <c r="R11" t="n">
-        <v>3972.350584748166</v>
+        <v>3976.069063010627</v>
       </c>
       <c r="S11" t="n">
-        <v>3874.268820014713</v>
+        <v>3878.057493732555</v>
       </c>
       <c r="T11" t="n">
-        <v>3874.268820014713</v>
+        <v>3674.438572522718</v>
       </c>
       <c r="U11" t="n">
-        <v>3620.781205046055</v>
+        <v>3420.951203989009</v>
       </c>
       <c r="V11" t="n">
-        <v>3289.718317702484</v>
+        <v>3089.888316645438</v>
       </c>
       <c r="W11" t="n">
-        <v>3289.718317702484</v>
+        <v>2737.119661375325</v>
       </c>
       <c r="X11" t="n">
-        <v>2916.252559441404</v>
+        <v>2363.653903114245</v>
       </c>
       <c r="Y11" t="n">
-        <v>2526.113227465592</v>
+        <v>1973.514571138433</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5537564413952</v>
+        <v>941.5538133730107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1007271602682</v>
+        <v>767.1007840918837</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1663174990169</v>
+        <v>618.1663744306325</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9288624935615</v>
+        <v>458.9289194251769</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3943045204464</v>
+        <v>312.3943614520618</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3178676286452</v>
+        <v>176.3195727392944</v>
       </c>
       <c r="H12" t="n">
-        <v>88.58453700698837</v>
+        <v>88.60216005725454</v>
       </c>
       <c r="I12" t="n">
-        <v>79.44701169496331</v>
+        <v>79.52138126021254</v>
       </c>
       <c r="J12" t="n">
-        <v>79.44701169496331</v>
+        <v>199.8957023064359</v>
       </c>
       <c r="K12" t="n">
-        <v>79.44701169496331</v>
+        <v>483.7894146391225</v>
       </c>
       <c r="L12" t="n">
-        <v>507.1489407576748</v>
+        <v>911.8420866857034</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.613786749411</v>
+        <v>1430.716233196138</v>
       </c>
       <c r="N12" t="n">
-        <v>1572.209499389998</v>
+        <v>1977.732079322241</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.017995117189</v>
+        <v>2455.924915108939</v>
       </c>
       <c r="P12" t="n">
-        <v>2364.914446644277</v>
+        <v>2558.382823855907</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.420132877915</v>
+        <v>2558.382823855907</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.420132877915</v>
+        <v>2558.382823855907</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.306890985798</v>
+        <v>2434.300196166459</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819344831454</v>
+        <v>2242.819293330238</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.770357391894</v>
+        <v>2014.77041432351</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.618249160151</v>
+        <v>1779.618306091767</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.38089243195</v>
+        <v>1525.380949363565</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.529392226417</v>
+        <v>1317.529449158033</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769093461463</v>
+        <v>1109.769150393079</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.007977583846</v>
+        <v>1094.963309206028</v>
       </c>
       <c r="C13" t="n">
-        <v>926.0079775838461</v>
+        <v>926.0271262781215</v>
       </c>
       <c r="D13" t="n">
-        <v>775.8913381715104</v>
+        <v>775.9104868657857</v>
       </c>
       <c r="E13" t="n">
-        <v>627.9782445891173</v>
+        <v>627.9973932833927</v>
       </c>
       <c r="F13" t="n">
-        <v>481.0882970912069</v>
+        <v>481.1074457854824</v>
       </c>
       <c r="G13" t="n">
-        <v>313.625789326529</v>
+        <v>313.6463197987406</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5453445959318</v>
+        <v>169.5781603301572</v>
       </c>
       <c r="I13" t="n">
-        <v>79.44701169496331</v>
+        <v>79.52138126021254</v>
       </c>
       <c r="J13" t="n">
-        <v>141.2227687026985</v>
+        <v>141.3928859031985</v>
       </c>
       <c r="K13" t="n">
-        <v>372.5761509426922</v>
+        <v>372.9036109204205</v>
       </c>
       <c r="L13" t="n">
-        <v>724.1552626311674</v>
+        <v>724.6840671925258</v>
       </c>
       <c r="M13" t="n">
-        <v>1105.235263972245</v>
+        <v>1105.976358166448</v>
       </c>
       <c r="N13" t="n">
-        <v>1482.688651058968</v>
+        <v>1483.636987113037</v>
       </c>
       <c r="O13" t="n">
-        <v>1815.311651120093</v>
+        <v>1816.451408574815</v>
       </c>
       <c r="P13" t="n">
-        <v>2076.407407842409</v>
+        <v>2077.710959374458</v>
       </c>
       <c r="Q13" t="n">
-        <v>2173.741495987919</v>
+        <v>2175.158450049002</v>
       </c>
       <c r="R13" t="n">
-        <v>2173.741495987919</v>
+        <v>2175.158450049002</v>
       </c>
       <c r="S13" t="n">
-        <v>2173.741495987919</v>
+        <v>2175.158450049002</v>
       </c>
       <c r="T13" t="n">
-        <v>1953.001740234568</v>
+        <v>1954.424598255923</v>
       </c>
       <c r="U13" t="n">
-        <v>1663.911982207154</v>
+        <v>1794.018494971246</v>
       </c>
       <c r="V13" t="n">
-        <v>1663.911982207154</v>
+        <v>1794.018494971246</v>
       </c>
       <c r="W13" t="n">
-        <v>1374.494812170193</v>
+        <v>1504.601324934285</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.449021557616</v>
+        <v>1276.611774036268</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.656442414086</v>
+        <v>1276.611774036268</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M15" t="n">
-        <v>914.0526986331906</v>
+        <v>1162.986701793413</v>
       </c>
       <c r="N15" t="n">
-        <v>1536.148662032527</v>
+        <v>1785.082665192749</v>
       </c>
       <c r="O15" t="n">
-        <v>2083.025137032721</v>
+        <v>2331.959140192943</v>
       </c>
       <c r="P15" t="n">
-        <v>2502.608655458797</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.1710892086091</v>
+        <v>762.2349062807016</v>
       </c>
       <c r="C16" t="n">
-        <v>762.2349062807023</v>
+        <v>762.2349062807016</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1182668683664</v>
+        <v>612.1182668683659</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859734</v>
+        <v>464.2051732859729</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>317.3152257880627</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>317.3152257880627</v>
       </c>
       <c r="H16" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2400.70279472928</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2217.53260446821</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1997.853822182592</v>
       </c>
       <c r="U16" t="n">
-        <v>2105.703342323244</v>
+        <v>1708.777608497319</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.018854117357</v>
+        <v>1454.093120291432</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.601684080396</v>
+        <v>1164.675950254471</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.612133182379</v>
+        <v>1164.675950254471</v>
       </c>
       <c r="Y16" t="n">
-        <v>1112.819554038849</v>
+        <v>943.8833711109413</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2316.676938649611</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1947.714421709199</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.448723102449</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>792.674565714598</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>378.6914586310049</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.920227843172</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4150.713411564309</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3466.881868950624</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.416110689544</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.276778713733</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4646447998178</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>571.9733873631767</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.705720206928</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.724074459056</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.820037858392</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.5452434300876</v>
+        <v>571.8714428665048</v>
       </c>
       <c r="C19" t="n">
-        <v>680.6090605021807</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>530.4924210898449</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>382.5793275074518</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>235.6893800095415</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>235.6893800095415</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.7987859375257</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4275129080895</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L19" t="n">
-        <v>820.1893309912238</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.418923035683</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.114788827389</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.137245842419</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.667680678624</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.380814232059</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.380814232059</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.210623970989</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.531841685371</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.455628000098</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.771139794211</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.353969757251</v>
+        <v>1193.385654860885</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3644188592332</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.3644188592332</v>
+        <v>753.5199076967446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>198.8209117892279</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>689.5532446329793</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1281.571598885107</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.9184063975744</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9822234696675</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8655840573317</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9524904749386</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411605</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117243</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948582</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628684</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.3961039628684</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -5996,25 +5996,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6060,16 +6060,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
         <v>1062.737405310563</v>
@@ -6078,10 +6078,10 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.755759562691</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2201.632234562885</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.1252502501686</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>577.1890673222617</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>427.0724279099259</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>279.1593343275329</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>132.2693868296226</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>132.2693868296226</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>132.2693868296226</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948584</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6160,37 +6160,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>927.7737150804084</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160704</v>
@@ -6224,19 +6224,19 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507201</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
         <v>3654.445485610259</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612963</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1063.776437885086</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599890983</v>
+        <v>869.9011758612336</v>
       </c>
       <c r="C28" t="n">
-        <v>394.0188770611915</v>
+        <v>700.9649929333267</v>
       </c>
       <c r="D28" t="n">
-        <v>394.0188770611915</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E28" t="n">
-        <v>382.6110126110869</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>235.7210651131766</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
         <v>235.7210651131766</v>
@@ -6385,10 +6385,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6403,31 +6403,31 @@
         <v>2311.699365782259</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897846</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628682</v>
+        <v>1152.221247127257</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193381</v>
+        <v>1051.549640691473</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6473,19 +6473,19 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
         <v>4606.950144347201</v>
@@ -6534,16 +6534,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
         <v>1062.737405310563</v>
@@ -6552,16 +6552,16 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>1971.609675461662</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9011758612335</v>
+        <v>678.2659052086701</v>
       </c>
       <c r="C31" t="n">
-        <v>700.9649929333266</v>
+        <v>509.3297222807632</v>
       </c>
       <c r="D31" t="n">
-        <v>550.8483535209907</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385977</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385977</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6640,31 +6640,31 @@
         <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074624</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2078.825154455254</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U31" t="n">
-        <v>1789.748940769981</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.748940769981</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.331770733021</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.342219835003</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.549640691473</v>
+        <v>859.9143700389099</v>
       </c>
     </row>
     <row r="32">
@@ -6689,43 +6689,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6771,28 +6771,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L33" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>2277.890755536549</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>2277.890755536549</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149475997</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196927</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160704</v>
@@ -6859,10 +6859,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948591</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
         <v>1239.450608139318</v>
@@ -6889,19 +6889,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W34" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
         <v>842.974607438402</v>
@@ -6953,13 +6953,13 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646823</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890986</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C37" t="n">
-        <v>394.0188770611917</v>
+        <v>847.8549404312372</v>
       </c>
       <c r="D37" t="n">
-        <v>394.0188770611917</v>
+        <v>697.7383010189014</v>
       </c>
       <c r="E37" t="n">
-        <v>246.1057834787987</v>
+        <v>549.8252074365083</v>
       </c>
       <c r="F37" t="n">
-        <v>246.1057834787986</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="G37" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K37" t="n">
         <v>432.4591980117245</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948586</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7111,34 +7111,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103733</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897846</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1376.555845121955</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628684</v>
+        <v>1237.583702502674</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193383</v>
+        <v>1016.791123359144</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7163,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9340838249508</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1118.952438077079</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N39" t="n">
-        <v>1741.048401476415</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.924876476609</v>
+        <v>2231.709843710094</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890983</v>
+        <v>957.549291997988</v>
       </c>
       <c r="C40" t="n">
-        <v>394.0188770611915</v>
+        <v>788.6131090700811</v>
       </c>
       <c r="D40" t="n">
-        <v>394.0188770611915</v>
+        <v>638.4964696577454</v>
       </c>
       <c r="E40" t="n">
-        <v>394.0188770611915</v>
+        <v>490.5833760753522</v>
       </c>
       <c r="F40" t="n">
-        <v>247.1289295632811</v>
+        <v>343.6934285774419</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160704</v>
@@ -7333,7 +7333,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628682</v>
+        <v>1178.341871141518</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193381</v>
+        <v>957.549291997988</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,61 +7464,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>107.3505653988748</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K42" t="n">
-        <v>107.3505653988748</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L42" t="n">
-        <v>107.3505653988748</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="M42" t="n">
-        <v>699.3689196510026</v>
+        <v>1507.107777810839</v>
       </c>
       <c r="N42" t="n">
-        <v>1321.464883050339</v>
+        <v>2129.203741210173</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.341358050533</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P42" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
         <v>2016.877442379908</v>
@@ -7530,7 +7530,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.876178449477</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>966.9178293936988</v>
+        <v>495.0957149475917</v>
       </c>
       <c r="C43" t="n">
-        <v>847.8549404312372</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7383010189014</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365083</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385979</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194264</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335686</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T43" t="n">
-        <v>2209.733717050077</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U43" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V43" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W43" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X43" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213615</v>
       </c>
       <c r="Y43" t="n">
-        <v>1148.566294223938</v>
+        <v>676.7441797778314</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1507.107777810839</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.203741210173</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876686</v>
+        <v>495.0957149475917</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888043</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>326.1595320196848</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948562</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2021.168930946048</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2429.412499335686</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614385</v>
+        <v>897.5367589213615</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179083</v>
+        <v>676.7441797778314</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295431</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.74439522492548</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782909079</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O29" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.863608118959</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.03025215527555</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.1281344333286</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.5960817640521</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.2341537691553</v>
+        <v>78.17264530610764</v>
       </c>
       <c r="S13" t="n">
-        <v>185.6226314994544</v>
+        <v>185.5987916847229</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>127.3967435793012</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.1243226825858</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729082</v>
+        <v>50.291526137289</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>39.78450170700474</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>184.2217382451277</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.537044377341601</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.17099650708292</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.827219048632401</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.053378189940796e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.25905959229605</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>59.0813907807609</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.97502887069292</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>43.76774845317366</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.1401768409656</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>118.9197629806693</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.25201353044653</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>51.73901138958533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597449</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440902</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.261181695201</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>88.12723419594903</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.79427727960956</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>96.65857273948737</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>49.37456102579023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>76.00797063972358</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>136.2749052347522</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.00797063972313</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875967.0051572481</v>
+        <v>876368.0019180855</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948028.2833947854</v>
+        <v>948028.2833947855</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953380.2208457742</v>
+        <v>953548.9471878451</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953548.947187845</v>
+        <v>953548.9471878454</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953548.9471878452</v>
+        <v>953548.947187845</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953548.9471878452</v>
+        <v>953548.9471878451</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953548.9471878451</v>
+        <v>953548.9471878452</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953548.947187845</v>
+        <v>953548.9471878452</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953548.9471878451</v>
+        <v>953548.9471878452</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953276.8063558559</v>
+        <v>953548.9471878452</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
-        <v>426276.8389160518</v>
+        <v>426473.0713734826</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918679</v>
       </c>
       <c r="G2" t="n">
-        <v>463772.3613220206</v>
+        <v>463842.7118431714</v>
       </c>
       <c r="H2" t="n">
-        <v>463842.7118431715</v>
+        <v>463842.7118431714</v>
       </c>
       <c r="I2" t="n">
         <v>463842.7118431715</v>
       </c>
       <c r="J2" t="n">
-        <v>463842.7118431716</v>
+        <v>463842.7118431714</v>
       </c>
       <c r="K2" t="n">
-        <v>463842.7118431716</v>
+        <v>463842.7118431715</v>
       </c>
       <c r="L2" t="n">
-        <v>463842.7118431714</v>
+        <v>463842.7118431713</v>
       </c>
       <c r="M2" t="n">
         <v>463842.7118431716</v>
       </c>
       <c r="N2" t="n">
-        <v>463842.7118431715</v>
+        <v>463842.7118431714</v>
       </c>
       <c r="O2" t="n">
         <v>463842.7118431716</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>463842.7118431717</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>599917.5982953525</v>
+        <v>600804.6206180346</v>
       </c>
       <c r="F3" t="n">
-        <v>155622.8275221999</v>
+        <v>154756.838862617</v>
       </c>
       <c r="G3" t="n">
-        <v>3443.329244788636</v>
+        <v>3551.88439016159</v>
       </c>
       <c r="H3" t="n">
-        <v>106.8615765837176</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79446.32826086925</v>
+        <v>79677.99317509875</v>
       </c>
       <c r="N3" t="n">
-        <v>40916.9276060243</v>
+        <v>40689.23867467695</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3118.611125658116</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5584.470890365465</v>
+        <v>5584.952038711069</v>
       </c>
       <c r="F4" t="n">
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
-        <v>6468.874198228063</v>
+        <v>6494.028029047318</v>
       </c>
       <c r="H4" t="n">
+        <v>6494.02802904732</v>
+      </c>
+      <c r="I4" t="n">
         <v>6494.028029047304</v>
       </c>
-      <c r="I4" t="n">
-        <v>6494.028029047311</v>
-      </c>
       <c r="J4" t="n">
-        <v>6494.028029047307</v>
+        <v>6494.02802904732</v>
       </c>
       <c r="K4" t="n">
-        <v>6494.028029047307</v>
+        <v>6494.028029047297</v>
       </c>
       <c r="L4" t="n">
-        <v>6494.028029047282</v>
+        <v>6494.02802904732</v>
       </c>
       <c r="M4" t="n">
-        <v>6494.028029047297</v>
+        <v>6494.028029047294</v>
       </c>
       <c r="N4" t="n">
-        <v>6494.02802904732</v>
+        <v>6494.028029047306</v>
       </c>
       <c r="O4" t="n">
-        <v>6494.028029047283</v>
+        <v>6494.028029047651</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>6494.028029047646</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>87013.16483057756</v>
+        <v>87086.22309486184</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>100905.9587784758</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="I5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="L5" t="n">
         <v>100930.0394572386</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
-      <c r="M5" t="n">
-        <v>100930.0394572386</v>
-      </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410650.3550690243</v>
+        <v>-410650.3550690244</v>
       </c>
       <c r="C6" t="n">
-        <v>179317.5241455202</v>
+        <v>179317.5241455201</v>
       </c>
       <c r="D6" t="n">
-        <v>23513.71805172486</v>
+        <v>23513.71805172501</v>
       </c>
       <c r="E6" t="n">
-        <v>-266238.3951002437</v>
+        <v>-267201.0980576836</v>
       </c>
       <c r="F6" t="n">
-        <v>200104.9087103722</v>
+        <v>200924.9923743894</v>
       </c>
       <c r="G6" t="n">
-        <v>352954.1991005281</v>
+        <v>352830.8629848597</v>
       </c>
       <c r="H6" t="n">
-        <v>356311.782780302</v>
+        <v>356382.7473750213</v>
       </c>
       <c r="I6" t="n">
-        <v>356418.6443568856</v>
+        <v>356382.7473750214</v>
       </c>
       <c r="J6" t="n">
-        <v>179995.4251642927</v>
+        <v>179959.5281824282</v>
       </c>
       <c r="K6" t="n">
-        <v>356418.6443568857</v>
+        <v>356382.7473750214</v>
       </c>
       <c r="L6" t="n">
-        <v>356418.6443568856</v>
+        <v>356382.7473750212</v>
       </c>
       <c r="M6" t="n">
-        <v>276972.3160960164</v>
+        <v>276704.7541999227</v>
       </c>
       <c r="N6" t="n">
-        <v>315501.7167508613</v>
+        <v>315693.5087003444</v>
       </c>
       <c r="O6" t="n">
-        <v>353395.3463796611</v>
+        <v>353264.1362493631</v>
       </c>
       <c r="P6" t="n">
-        <v>350697.0958562112</v>
+        <v>356382.7473750213</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1221.71724506447</v>
+        <v>1222.47584115139</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>993.0876461870414</v>
+        <v>994.0172657526567</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="H4" t="n">
         <v>1173.104351895088</v>
@@ -26829,7 +26829,7 @@
         <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>628.2411447264047</v>
+        <v>628.9997408133248</v>
       </c>
       <c r="F3" t="n">
-        <v>136.323803651916</v>
+        <v>135.5652075649959</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-3.279141989649162e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>318.8003734324858</v>
+        <v>319.7299929981011</v>
       </c>
       <c r="F4" t="n">
-        <v>167.0576441389651</v>
+        <v>166.1280245733502</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.800373432486</v>
+        <v>319.7299929981009</v>
       </c>
       <c r="N4" t="n">
-        <v>167.0576441389651</v>
+        <v>166.1280245733502</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.95906156908154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.8003734324858</v>
+        <v>319.7299929981011</v>
       </c>
       <c r="N4" t="n">
-        <v>167.0576441389651</v>
+        <v>166.1280245733502</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.95906156908109</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3960637954394315</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>144.2707130727114</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>14.59587156758288</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.14542677928246</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0793351214755</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>170.1037321734648</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>192.3730262591457</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.5711587387298</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27910,13 +27910,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>16.19860367562151</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>48.85750743074513</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.911426110811935</v>
+        <v>4.914475743322167</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29914265735275</v>
+        <v>50.33037470629815</v>
       </c>
       <c r="I11" t="n">
-        <v>189.3477551370773</v>
+        <v>189.465326094428</v>
       </c>
       <c r="J11" t="n">
-        <v>416.8511518725248</v>
+        <v>417.1099856197901</v>
       </c>
       <c r="K11" t="n">
-        <v>624.7518191431942</v>
+        <v>625.1397438346175</v>
       </c>
       <c r="L11" t="n">
-        <v>775.0598759819551</v>
+        <v>775.5411308643135</v>
       </c>
       <c r="M11" t="n">
-        <v>862.4034500801068</v>
+        <v>862.938938864619</v>
       </c>
       <c r="N11" t="n">
-        <v>876.3580395174513</v>
+        <v>876.9021930703332</v>
       </c>
       <c r="O11" t="n">
-        <v>827.5200461280651</v>
+        <v>828.0338748976734</v>
       </c>
       <c r="P11" t="n">
-        <v>706.2692140173954</v>
+        <v>706.7077549844073</v>
       </c>
       <c r="Q11" t="n">
-        <v>530.3787664239427</v>
+        <v>530.708092426682</v>
       </c>
       <c r="R11" t="n">
-        <v>308.5173704332905</v>
+        <v>308.7089369114613</v>
       </c>
       <c r="S11" t="n">
-        <v>111.9191225001271</v>
+        <v>111.988616000954</v>
       </c>
       <c r="T11" t="n">
-        <v>21.49976780007926</v>
+        <v>21.5131175663928</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3929140888649547</v>
+        <v>0.3931580594657733</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62784464032735</v>
+        <v>2.629476337570914</v>
       </c>
       <c r="H12" t="n">
-        <v>25.37944692105625</v>
+        <v>25.39520568127699</v>
       </c>
       <c r="I12" t="n">
-        <v>90.47622994109518</v>
+        <v>90.53240899092842</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>248.4278499456801</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>424.6027645629314</v>
       </c>
       <c r="L12" t="n">
-        <v>570.5765303482697</v>
+        <v>570.9308161905619</v>
       </c>
       <c r="M12" t="n">
-        <v>665.835898560136</v>
+        <v>666.2493334275074</v>
       </c>
       <c r="N12" t="n">
-        <v>683.4585935384717</v>
+        <v>683.8829707965687</v>
       </c>
       <c r="O12" t="n">
-        <v>625.2310886133235</v>
+        <v>625.6193108956552</v>
       </c>
       <c r="P12" t="n">
-        <v>452.0516311790658</v>
+        <v>237.4672445324791</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.4420632109088</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.81106163064176</v>
+        <v>48.84136969128427</v>
       </c>
       <c r="T12" t="n">
-        <v>10.5920580020212</v>
+        <v>10.59863488696346</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1728845158110099</v>
+        <v>0.172991864313876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.203096671427732</v>
+        <v>2.204464631584473</v>
       </c>
       <c r="H13" t="n">
-        <v>19.5875322241484</v>
+        <v>19.59969463354197</v>
       </c>
       <c r="I13" t="n">
-        <v>66.25312535529946</v>
+        <v>66.29426364801309</v>
       </c>
       <c r="J13" t="n">
-        <v>155.7589346699407</v>
+        <v>155.8556494530223</v>
       </c>
       <c r="K13" t="n">
-        <v>255.9597769167856</v>
+        <v>256.118709014996</v>
       </c>
       <c r="L13" t="n">
-        <v>327.5403905866285</v>
+        <v>327.7437689539316</v>
       </c>
       <c r="M13" t="n">
-        <v>345.3454173220762</v>
+        <v>345.5598512946461</v>
       </c>
       <c r="N13" t="n">
-        <v>337.1338751831186</v>
+        <v>337.3432103951042</v>
       </c>
       <c r="O13" t="n">
-        <v>311.3977004305308</v>
+        <v>311.5910553806855</v>
       </c>
       <c r="P13" t="n">
-        <v>266.4545283334049</v>
+        <v>266.619976896362</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.4793040047349</v>
+        <v>184.5938520138599</v>
       </c>
       <c r="R13" t="n">
-        <v>99.05923760801419</v>
+        <v>99.12074607106184</v>
       </c>
       <c r="S13" t="n">
-        <v>38.39396653751783</v>
+        <v>38.4178063522494</v>
       </c>
       <c r="T13" t="n">
-        <v>9.413231232463945</v>
+        <v>9.419076153133656</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1201689093506037</v>
+        <v>0.1202435253591532</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32093,10 +32093,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.6554855117215</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>243.8743315376124</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745725</v>
@@ -32564,13 +32564,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32798,13 +32798,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>489.7119024980487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33032,22 +33032,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>391.6330708361143</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33272,10 +33272,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>451.3961725873445</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,7 +33494,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
@@ -33512,10 +33512,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>412.6830934337412</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
@@ -33749,16 +33749,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>212.9461024279904</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>576.0147188438577</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
@@ -33989,13 +33989,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>226.4403033743561</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>139.426702093682</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>147.6720980399188</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>571.4938338238319</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>245.091624262227</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>235.8052473458386</v>
+        <v>236.0640810931038</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619680982137</v>
+        <v>405.049892789637</v>
       </c>
       <c r="L11" t="n">
-        <v>539.2934610119678</v>
+        <v>539.7747158943262</v>
       </c>
       <c r="M11" t="n">
-        <v>632.0572168528341</v>
+        <v>632.5927056373463</v>
       </c>
       <c r="N11" t="n">
-        <v>646.9449759208603</v>
+        <v>647.4891294737422</v>
       </c>
       <c r="O11" t="n">
-        <v>597.4218347063784</v>
+        <v>597.9356634759866</v>
       </c>
       <c r="P11" t="n">
-        <v>475.0362182621258</v>
+        <v>475.4747592291378</v>
       </c>
       <c r="Q11" t="n">
-        <v>308.0730765494932</v>
+        <v>308.4024025522325</v>
       </c>
       <c r="R11" t="n">
-        <v>92.9318326191584</v>
+        <v>93.12339909732918</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>121.5902232790134</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>286.7613255885724</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0221505683955</v>
+        <v>432.3764364106877</v>
       </c>
       <c r="M12" t="n">
-        <v>523.7018646381177</v>
+        <v>524.115299505489</v>
       </c>
       <c r="N12" t="n">
-        <v>552.1168814551385</v>
+        <v>552.5412587132354</v>
       </c>
       <c r="O12" t="n">
-        <v>482.6348441688791</v>
+        <v>483.0230664512108</v>
       </c>
       <c r="P12" t="n">
-        <v>318.0772237647355</v>
+        <v>103.4928371181489</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.4602891248873</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.39975455326788</v>
+        <v>62.49646933634949</v>
       </c>
       <c r="K13" t="n">
-        <v>233.6902850909027</v>
+        <v>233.8492171891131</v>
       </c>
       <c r="L13" t="n">
-        <v>355.1304158469446</v>
+        <v>355.3337942142477</v>
       </c>
       <c r="M13" t="n">
-        <v>384.9292942839168</v>
+        <v>385.1437282564867</v>
       </c>
       <c r="N13" t="n">
-        <v>381.2660475623471</v>
+        <v>381.4753827743328</v>
       </c>
       <c r="O13" t="n">
-        <v>335.9828283445705</v>
+        <v>336.1761832947251</v>
       </c>
       <c r="P13" t="n">
-        <v>263.7330875982984</v>
+        <v>263.8985361612555</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.31726075304054</v>
+        <v>98.43180876216549</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35741,10 +35741,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.67371142570003</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N17" t="n">
         <v>744.73230092637</v>
@@ -35902,7 +35902,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>416.9991286653367</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
         <v>127.3573607845842</v>
@@ -36124,10 +36124,10 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M20" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>106.0328925632534</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946983</v>
@@ -36212,13 +36212,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870085</v>
@@ -36446,13 +36446,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36607,7 +36607,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
         <v>553.844392613483</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36680,22 +36680,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>260.291358752781</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O29" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
         <v>553.844392613483</v>
@@ -36920,10 +36920,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>320.0544605040112</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M32" t="n">
         <v>728.2874363020583</v>
@@ -37090,7 +37090,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
@@ -37160,10 +37160,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>278.7086860194109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
@@ -37397,16 +37397,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>70.3498579835459</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>437.4603390639836</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
@@ -37637,13 +37637,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>92.46589596002582</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.58907542701531</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>5.075853595474315</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>605.1570404425923</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>428.8975893793875</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
